--- a/ResxFileFromExcel/SampleInput.xlsx
+++ b/ResxFileFromExcel/SampleInput.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tasks\InApp-Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ResxFileFromExcel\ResxFileFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF6E156-B17D-45B3-AA99-DCC2D5AC7BF9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6657C945-EB6F-40E2-BFC0-B9411382DC9E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{68ABEB2B-1EC0-495F-B6CD-C870869A9683}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{68ABEB2B-1EC0-495F-B6CD-C870869A9683}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1109">
   <si>
     <t>This account has been locked out, please try again later</t>
   </si>
@@ -4029,6 +4029,300 @@
   </si>
   <si>
     <t>Condado o provincia</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>AccountLockedOutTryLater</t>
+  </si>
+  <si>
+    <t>AddCard</t>
+  </si>
+  <si>
+    <t>AddCardAndPay</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>ByContinuingTheTransactionMiPayNeedDetails</t>
+  </si>
+  <si>
+    <t>CallToTopUp</t>
+  </si>
+  <si>
+    <t>CardDetails</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>CardType</t>
+  </si>
+  <si>
+    <t>ChooseAddress</t>
+  </si>
+  <si>
+    <t>Confirmation_GBPAddedToPhone</t>
+  </si>
+  <si>
+    <t>Confirmation_NoteTransactionId</t>
+  </si>
+  <si>
+    <t>Confirmation_TopupWasSuccessful</t>
+  </si>
+  <si>
+    <t>Confirmation_TopupWasUnSuccessful</t>
+  </si>
+  <si>
+    <t>Confirmation_TryAnotherPaymentMethodOrCard</t>
+  </si>
+  <si>
+    <t>ContactUs_Number</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>CountyOrProvince</t>
+  </si>
+  <si>
+    <t>DoYouWantToContinue</t>
+  </si>
+  <si>
+    <t>EditDetails</t>
+  </si>
+  <si>
+    <t>EnterYourBillingAddress</t>
+  </si>
+  <si>
+    <t>EnterYourDetails</t>
+  </si>
+  <si>
+    <t>ExpiringOn</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>ExpiryMonth</t>
+  </si>
+  <si>
+    <t>ExpiryYear</t>
+  </si>
+  <si>
+    <t>FAQ_Title</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>ForMoreInfoSee</t>
+  </si>
+  <si>
+    <t>GettingStartedWithTheApp_Answer_1</t>
+  </si>
+  <si>
+    <t>GettingStartedWithTheApp_Answer_2</t>
+  </si>
+  <si>
+    <t>GettingStartedWithTheApp_Question</t>
+  </si>
+  <si>
+    <t>HaveFurtherQuestions</t>
+  </si>
+  <si>
+    <t>HowBuyAppBundle_Answer_1</t>
+  </si>
+  <si>
+    <t>HowBuyAppBundle_Answer_2</t>
+  </si>
+  <si>
+    <t>HowBuyAppBundle_Answer_3</t>
+  </si>
+  <si>
+    <t>HowBuyAppBundle_Answer_4</t>
+  </si>
+  <si>
+    <t>HowBuyAppBundle_Question</t>
+  </si>
+  <si>
+    <t>HowCheckBalance_Answer_1</t>
+  </si>
+  <si>
+    <t>HowCheckBalance_Answer_2</t>
+  </si>
+  <si>
+    <t>HowCheckBalance_Question</t>
+  </si>
+  <si>
+    <t>HowCheckCallAndMessageHistory_Answer_1</t>
+  </si>
+  <si>
+    <t>HowCheckCallAndMessageHistory_Answer_2</t>
+  </si>
+  <si>
+    <t>HowCheckCallAndMessageHistory_Answer_3</t>
+  </si>
+  <si>
+    <t>HowCheckCallAndMessageHistory_Answer_4</t>
+  </si>
+  <si>
+    <t>HowCheckCallAndMessageHistory_Question</t>
+  </si>
+  <si>
+    <t>HowDoesAppCallWork_Answer_1</t>
+  </si>
+  <si>
+    <t>HowDoesAppCallWork_Answer_2</t>
+  </si>
+  <si>
+    <t>HowDoesAppCallWork_Answer_3</t>
+  </si>
+  <si>
+    <t>HowDoesAppCallWork_Answer_4</t>
+  </si>
+  <si>
+    <t>HowDoesAppCallWork_Question</t>
+  </si>
+  <si>
+    <t>HowDoIMakeCall_Answer_1</t>
+  </si>
+  <si>
+    <t>HowDoIMakeCall_Answer_2</t>
+  </si>
+  <si>
+    <t>HowDoIMakeCall_Answer_3</t>
+  </si>
+  <si>
+    <t>HowDoIMakeCall_Question</t>
+  </si>
+  <si>
+    <t>HowDoISendMessage_Answer_1</t>
+  </si>
+  <si>
+    <t>HowDoISendMessage_Answer_2</t>
+  </si>
+  <si>
+    <t>HowDoISendMessage_Answer_3</t>
+  </si>
+  <si>
+    <t>HowDoISendMessage_Answer_4</t>
+  </si>
+  <si>
+    <t>HowDoISendMessage_Answer_5</t>
+  </si>
+  <si>
+    <t>HowDoISendMessage_Question</t>
+  </si>
+  <si>
+    <t>HowReferFriend_Answer_1</t>
+  </si>
+  <si>
+    <t>HowReferFriend_Answer_2</t>
+  </si>
+  <si>
+    <t>HowReferFriend_Answer_3</t>
+  </si>
+  <si>
+    <t>HowReferFriend_Answer_4</t>
+  </si>
+  <si>
+    <t>HowReferFriend_Answer_5</t>
+  </si>
+  <si>
+    <t>HowReferFriend_Answer_6</t>
+  </si>
+  <si>
+    <t>HowReferFriend_Question</t>
+  </si>
+  <si>
+    <t>HowTopUpTalkHomeApp_Answer_1</t>
+  </si>
+  <si>
+    <t>HowTopUpTalkHomeApp_Answer_10</t>
+  </si>
+  <si>
+    <t>HowTopUpTalkHomeApp_Answer_2</t>
+  </si>
+  <si>
+    <t>HowTopUpTalkHomeApp_Answer_3</t>
+  </si>
+  <si>
+    <t>HowTopUpTalkHomeApp_Answer_4</t>
+  </si>
+  <si>
+    <t>HowTopUpTalkHomeApp_Answer_5</t>
+  </si>
+  <si>
+    <t>HowTopUpTalkHomeApp_Answer_6</t>
+  </si>
+  <si>
+    <t>HowTopUpTalkHomeApp_Answer_7</t>
+  </si>
+  <si>
+    <t>HowTopUpTalkHomeApp_Answer_8</t>
+  </si>
+  <si>
+    <t>HowTopUpTalkHomeApp_Answer_9</t>
+  </si>
+  <si>
+    <t>HowTopUpTalkHomeApp_Question</t>
+  </si>
+  <si>
+    <t>IssueNumber</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>LockedOut</t>
+  </si>
+  <si>
+    <t>NameOnCard</t>
+  </si>
+  <si>
+    <t>PaymentPowerdByMiPayUK</t>
+  </si>
+  <si>
+    <t>PaymentPreference</t>
+  </si>
+  <si>
+    <t>PleaseEnterYourDetails</t>
+  </si>
+  <si>
+    <t>PleaseSupplyThreeDigitCCVCode</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t>PrivacyPolicy</t>
+  </si>
+  <si>
+    <t>SecurityCode</t>
+  </si>
+  <si>
+    <t>SelectCard</t>
+  </si>
+  <si>
+    <t>SelectTopUpAmount</t>
+  </si>
+  <si>
+    <t>SelectYour</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>TermsOfUse</t>
+  </si>
+  <si>
+    <t>UseThisCard</t>
   </si>
 </sst>
 </file>
@@ -4122,7 +4416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4149,18 +4443,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -4478,2943 +4768,3244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E42DC8-636C-4C44-9197-A5F0246B85D6}">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>577</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B21" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B43" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B46" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B47" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B48" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B50" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B51" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:10" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B53" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B54" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B55" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B56" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="E56" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B57" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B58" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B59" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B60" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="E60" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:10" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B62" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:10" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B64" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B65" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B66" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B67" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B69" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="E69" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B70" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B71" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B72" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B73" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="E73" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B74" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B75" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B77" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B78" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="79" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B79" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B80" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="E80" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B81" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="E81" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="J81" s="2" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="82" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B82" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="83" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B83" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B84" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="85" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B85" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B86" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="E86" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="87" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B87" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="88" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B88" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="J88" s="2" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B89" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B90" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="J90" s="2" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B91" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="E91" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="J91" s="2" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B92" t="s">
         <v>87</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B93" t="s">
         <v>88</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="E93" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="J93" s="2" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B94" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B95" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B96" t="s">
         <v>91</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="J97" s="2" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>608</v>
       </c>
       <c r="I99" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B100" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="J100" s="2" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>96</v>
@@ -7425,141 +8016,156 @@
       <c r="I101" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="J101" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="E103" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>585</v>
       </c>
       <c r="I103" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="104" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B104" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="E104" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="J104" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B105" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="E105" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>219</v>
+      <c r="B106" t="s">
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>101</v>
@@ -7570,415 +8176,460 @@
       <c r="I106" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="J106" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B107" t="s">
         <v>102</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="E107" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="108" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B108" t="s">
         <v>103</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B109" t="s">
         <v>104</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="E109" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="I109" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B110" t="s">
         <v>105</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="E110" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B111" t="s">
         <v>106</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B112" t="s">
         <v>107</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="J112" s="2" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="113" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B113" t="s">
         <v>108</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="E113" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="J113" s="2" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B114" t="s">
         <v>109</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="H114" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="J114" s="2" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B115" t="s">
         <v>110</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="E115" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="I115" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="J115" s="2" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="E116" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="J116" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B117" t="s">
         <v>112</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="E117" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="J117" s="2" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B118" t="s">
         <v>113</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="E118" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="E119" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="E120" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="J120" s="2" t="s">
         <v>900</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:I120">
+  <conditionalFormatting sqref="B1:J120">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/ResxFileFromExcel/SampleInput.xlsx
+++ b/ResxFileFromExcel/SampleInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ResxFileFromExcel\ResxFileFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6657C945-EB6F-40E2-BFC0-B9411382DC9E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E8A55-0F11-41F9-AF78-B0B2F5CFEBB9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{68ABEB2B-1EC0-495F-B6CD-C870869A9683}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1216">
   <si>
     <t>This account has been locked out, please try again later</t>
   </si>
@@ -4323,6 +4323,327 @@
   </si>
   <si>
     <t>UseThisCard</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Detta konto är låst, försök igen senare</t>
+  </si>
+  <si>
+    <t>Lägg till kort</t>
+  </si>
+  <si>
+    <t>Lägg till kort och betala</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>Adress 1</t>
+  </si>
+  <si>
+    <t>Adress 2</t>
+  </si>
+  <si>
+    <t>Och</t>
+  </si>
+  <si>
+    <t>Genom att fortsätta med transaktionen kommer Mi-Pay att begära personuppgifter som behövs för att tillhandahålla tjänsten</t>
+  </si>
+  <si>
+    <t>Ring för att fylla på</t>
+  </si>
+  <si>
+    <t>Annullera</t>
+  </si>
+  <si>
+    <t>Kortuppgifter</t>
+  </si>
+  <si>
+    <t>Korttyp</t>
+  </si>
+  <si>
+    <t>Kassan</t>
+  </si>
+  <si>
+    <t>Välj adress</t>
+  </si>
+  <si>
+    <t>Stad</t>
+  </si>
+  <si>
+    <t>Bekräftelse</t>
+  </si>
+  <si>
+    <t>Har lagts till din telefon</t>
+  </si>
+  <si>
+    <t>Gör en notering om transaktions-ID för inköpet</t>
+  </si>
+  <si>
+    <t>Påfyllningen klar</t>
+  </si>
+  <si>
+    <t>Påfyllningen misslyckades</t>
+  </si>
+  <si>
+    <t>Prova ett annat betalningssätt eller kort</t>
+  </si>
+  <si>
+    <t>Kontakta oss: 0333 200 6033</t>
+  </si>
+  <si>
+    <t>Fortsätt</t>
+  </si>
+  <si>
+    <t>Län/Land</t>
+  </si>
+  <si>
+    <t>Län eller region</t>
+  </si>
+  <si>
+    <t>Vill du fortsätta?</t>
+  </si>
+  <si>
+    <t>Redigera uppgifter</t>
+  </si>
+  <si>
+    <t>Ange din fakturaadress</t>
+  </si>
+  <si>
+    <t>Ange dina uppgifter</t>
+  </si>
+  <si>
+    <t>Löper ut den</t>
+  </si>
+  <si>
+    <t>Förfallodatum</t>
+  </si>
+  <si>
+    <t>Förfallomånad</t>
+  </si>
+  <si>
+    <t>Förfalloår</t>
+  </si>
+  <si>
+    <t>Vamligt ställda frågor</t>
+  </si>
+  <si>
+    <t>Förnamn</t>
+  </si>
+  <si>
+    <t>För mer information vänligen se</t>
+  </si>
+  <si>
+    <t>Vill du komma igång med appen?</t>
+  </si>
+  <si>
+    <t>TalkHome-appen tillhandahåller internationella lågkostnadssamtal till mobiltelefoner och fasta linjer samt SMS i hela världen. Genom att använda ditt aktuella mobiltelefonnummer, synkroniseras appen med dina enheters kontaktlistor för att ge dig tillgång till alla dina kontakter.</t>
+  </si>
+  <si>
+    <t>Efter nedladdning och inställning av appen kommer du att kunna börja använda appen i farten. Svep åt vänster eller höger genom alternativen att ringa, fylla på din app, kontrollera samtals taxor, köpa ett paket för billigare samtal till utvalda länder, sända ögonblickliga app-meddelande, justera dina app-inställningar och mycket mer</t>
+  </si>
+  <si>
+    <t>Har du ytterligare frågor?</t>
+  </si>
+  <si>
+    <t>Våra app-paket ger dig stort värde till våra toppresmål. Se till att du har kredit tillgängligt på ditt konto och följ dessa steg för att köpa ett app-paket.</t>
+  </si>
+  <si>
+    <t>1. Svep till “Paket”-ikonen för att se tillgängliga paket till våra toppresmål.</t>
+  </si>
+  <si>
+    <t>2. Välj en flagga för att se hur många minuter som inkluderas i varje paket</t>
+  </si>
+  <si>
+    <t>3. Tryck på köp för att omvandla din app-kredit till ett paket.</t>
+  </si>
+  <si>
+    <t>Hur köper jag ett app-paket?</t>
+  </si>
+  <si>
+    <t>Svep till och välj "Min app". Här kan du få tillgång till ditt aktuella saldo, app-pinkoden, ditt app-nummer, alla aktiva paketsaldon och deras förfallodatum.</t>
+  </si>
+  <si>
+    <t>Tips: Förbli på toppen av din användning och vrid på lågt-saldo-varningar i din apps "Inställningar"-sektion.</t>
+  </si>
+  <si>
+    <t>Hur kollar jag mitt saldo?</t>
+  </si>
+  <si>
+    <t>Håll koll på din app-användning genom att kolla vem du har ringt och skickat meddelanden till.</t>
+  </si>
+  <si>
+    <t>1. Svep till och välj “ring”-ikonen</t>
+  </si>
+  <si>
+    <t>2. Under din “Nyligen”-lista, tryck på din önskade kontakt och en rullgardinslista kommer att dyka upp</t>
+  </si>
+  <si>
+    <t>3. Tryck på info för att se din samtals- och meddelandehistorik till denna kontakt</t>
+  </si>
+  <si>
+    <t>Hur kollar jag min samtals- och meddelandehistorik?</t>
+  </si>
+  <si>
+    <t>Talk Home-app till Talk Home-app-samtal är gratis.</t>
+  </si>
+  <si>
+    <t>Oavsett var i världen du befinner dig, kan du ringa gratis app-samtal till andra Talk Home-app-användare. För att se vem som är kvaificerad i din kontaktlista, leta efter Talk Home-logon bredvid deras namn. "Vi rekommenderar att du använder en Wi-Fi-anslutning för app-samtal annars tillkommer dataavgifter".</t>
+  </si>
+  <si>
+    <t>Ringer andra mobiltelefoner och fasta linjer</t>
+  </si>
+  <si>
+    <t>Du kan fortfarande ringa till vanliga lokala och internationella mobiltelefoner och fasta telefoner från appen med hjälp av antingen en dataanslutning eller via ett lokalt åtkomstnummer. Om din WiFi eller mobila dataanslutning inte är tillförlitlig så kan du bya till att ringa samtal med hjälp av ett lokalt åtkomstnummer, detta kan göras i appen under "Inställningar". Om du ringer med hjälp av ett lokalt åtkomstnummer, se då till att din nuvarande mobiltelefon eller fasta telefon omfattar vanliga samtal annars tillkommer din operatörs samtalsavgifter.</t>
+  </si>
+  <si>
+    <t>Hur fungerar ett app-samtal?</t>
+  </si>
+  <si>
+    <t>Följ dessa steg för att ringa ett app-samtal till någon vanlig lokal telefon, internationella mobiltelefoner eller fasta telefoner.</t>
+  </si>
+  <si>
+    <t>1. Svep till och välj “Ring”-ikonen</t>
+  </si>
+  <si>
+    <t>2. Välj den kontakt du vill ringa till från din “Nyligen”- eller “Kontakter”-lista eller ring ett nytt nummer från knappsatsen.</t>
+  </si>
+  <si>
+    <t>Hur ringer jag ett telefonsamtal?</t>
+  </si>
+  <si>
+    <t>Skicka gratis i-app-meddelanden till familj och vänner om de också har Talk Home-appen.</t>
+  </si>
+  <si>
+    <t>Du kan även skicka standard-SMS till icke-Talk Home- app-kunder genom att följa följande steg:</t>
+  </si>
+  <si>
+    <t>1. Svep till och välj “Meddelande”-ikonen</t>
+  </si>
+  <si>
+    <t>2. Välj plus-ikonen i det övre högra hörnet för att starta ett nytt meddelande</t>
+  </si>
+  <si>
+    <t>3. Skriv in mobiltelefonnumret som du skulle vilja SMS:a till eller välj den gröna plus-knappen för att lägga till någon från din kontaktlista</t>
+  </si>
+  <si>
+    <t>4. Skriv ditt meddelande och skicka</t>
+  </si>
+  <si>
+    <t>Hur sänder jag ett meddelande?</t>
+  </si>
+  <si>
+    <t>Talk Home app-samtal och i-app-meddelanden är gratis till andra Talk Home-app-användare. Inbjud vänner och familj att ladda ner och installera Talk Home-appen med din unika Plus ett-referenskod och få 1 £ när de fyller på för första gången.</t>
+  </si>
+  <si>
+    <t>Inbjud din familj och dina vänner att ansluta till Talk Home genom att följa dessa steg:</t>
+  </si>
+  <si>
+    <t>1. Välj “PlusEtt”-ikonen</t>
+  </si>
+  <si>
+    <t>2. Om du inte har ställt in Plus, så följ instruktionerna genom att ange ditt namn för att skapa din unika kod.</t>
+  </si>
+  <si>
+    <t>3. Tryck på “Dela nu” och välj den kontakt du vill sända inbjudan till.</t>
+  </si>
+  <si>
+    <t>Din kontakt får nu en SMS-inbjudan med din PlusEtt-referenskod. De behöver ladda ner Talk Now-appen och ange din kod när de ställer in appen för första gången på sin mobiltelefon.</t>
+  </si>
+  <si>
+    <t>Hur rekommenderar jag en vän?</t>
+  </si>
+  <si>
+    <t>Svep till och välj “Fyll på”-ikonen för att lägga till kredit på din app.</t>
+  </si>
+  <si>
+    <t>3. Välj “Fyll på” för att lägga till kredit på ditt app-saldo.</t>
+  </si>
+  <si>
+    <t>Fyll på med hjälp av betalkort eller PayPal</t>
+  </si>
+  <si>
+    <t>1. Välj antingen “Fyll på med kort” eller “Fyll på med PayPal”</t>
+  </si>
+  <si>
+    <t>2. Välj påfyllnadsbelopp och fortsätt för att gå vidare till kassan.</t>
+  </si>
+  <si>
+    <t>3. Följ betalningsinstruktionerna för att slutföra kassan.</t>
+  </si>
+  <si>
+    <t>Du kommer att få en bekräftelse via e-post, när transaktionen framgångsrikt har genomförts.</t>
+  </si>
+  <si>
+    <t>Fyll på med hjälp av voucher</t>
+  </si>
+  <si>
+    <t>1, Välj “Voucher”.</t>
+  </si>
+  <si>
+    <t>2. Ange voucherkod.</t>
+  </si>
+  <si>
+    <t>Hur fyller jag på min Talk Home-app</t>
+  </si>
+  <si>
+    <t>Utfärdandenummer</t>
+  </si>
+  <si>
+    <t>Efternamn</t>
+  </si>
+  <si>
+    <t>Utlåst</t>
+  </si>
+  <si>
+    <t>Slå upp</t>
+  </si>
+  <si>
+    <t>Månad</t>
+  </si>
+  <si>
+    <t>Namn</t>
+  </si>
+  <si>
+    <t>Namn på kortet</t>
+  </si>
+  <si>
+    <t>Betala</t>
+  </si>
+  <si>
+    <t>Betalning</t>
+  </si>
+  <si>
+    <t>Betalningar drivs av Mi-Pay, Storbritannien</t>
+  </si>
+  <si>
+    <t>betalningsval</t>
+  </si>
+  <si>
+    <t>Ange en 3-siffrig CCV-kod</t>
+  </si>
+  <si>
+    <t>Sekretesspolicy</t>
+  </si>
+  <si>
+    <t>Säkerhetskod</t>
+  </si>
+  <si>
+    <t>Välj kort</t>
+  </si>
+  <si>
+    <t>Välj påfyllnadsbelopp</t>
+  </si>
+  <si>
+    <t>Välj din</t>
+  </si>
+  <si>
+    <t>Användarvillkor</t>
+  </si>
+  <si>
+    <t>Använd detta kort</t>
   </si>
 </sst>
 </file>
@@ -4376,7 +4697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4412,11 +4733,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4444,6 +4776,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4768,3247 +5103,3547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E42DC8-636C-4C44-9197-A5F0246B85D6}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
-    <col min="10" max="10" width="34.42578125" customWidth="1"/>
+    <col min="1" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1011</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1012</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>1013</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>1014</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1015</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>1016</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>577</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>1017</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>1019</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1020</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C21" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>1024</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>1025</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1026</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>1027</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>1028</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>1029</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C29" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>1030</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>1031</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>1032</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C32" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="J33" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>1033</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C34" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>1034</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C35" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>1035</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C36" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>1036</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C37" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C38" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>1038</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>1039</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C40" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>1040</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C41" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C42" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>1041</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C43" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="B44" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C44" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>1043</v>
       </c>
       <c r="B45" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C45" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>1044</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C46" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="I46" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C47" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>1046</v>
       </c>
       <c r="B48" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C48" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C49" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>1048</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C50" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>1049</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>1050</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C52" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>1051</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>1052</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C54" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>1053</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>1054</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C56" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="F56" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C57" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>1056</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C58" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C59" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>1058</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C60" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="F60" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>1059</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C61" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>1060</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C62" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>1061</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C63" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>1062</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C64" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>1063</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C65" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>1064</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C66" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C67" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>1066</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C68" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="F68" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>1067</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C69" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="F69" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>1068</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C70" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="F70" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>1069</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C71" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>1070</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C72" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="F72" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>1071</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C73" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="F73" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>1072</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C74" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>1073</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C75" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C76" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>1075</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C77" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="F77" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>1076</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C78" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>1077</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C79" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>1078</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C80" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="F80" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>1079</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C81" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="F81" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="J81" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>1080</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C82" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="F82" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>1081</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C83" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="F83" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>1082</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C84" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="F84" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>1083</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C85" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="K85" s="2" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>1084</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C86" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="F86" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>1085</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C87" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="F87" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="K87" s="2" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>1086</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C88" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="F88" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="J88" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="K88" s="2" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>1087</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C89" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="F89" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="K89" s="2" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>1088</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C90" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="F90" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="J90" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="K90" s="2" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>1089</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C91" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="F91" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="J91" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="K91" s="2" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>1090</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C92" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="F92" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="K92" s="2" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>1091</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C93" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="F93" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="J93" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>1092</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C94" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="K94" s="2" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>1093</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C95" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="F95" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="K95" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C96" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="I96" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="K96" s="2" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C97" t="s">
         <v>92</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="J97" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="K97" s="2" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C98" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="F98" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="K98" s="2" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C99" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="F99" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>608</v>
       </c>
       <c r="J99" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>1095</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C100" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="J100" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="K100" s="2" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C101" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>96</v>
@@ -8019,156 +8654,171 @@
       <c r="J101" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K101" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="K102" s="2" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C103" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>585</v>
       </c>
       <c r="J103" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>1096</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C104" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="F104" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="J104" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="K104" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>1097</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C105" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="K105" s="2" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C106" t="s">
         <v>101</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F106" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>101</v>
@@ -8179,457 +8829,502 @@
       <c r="J106" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K106" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>1098</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="F107" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="K107" s="2" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>1099</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C108" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="F108" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="K108" s="2" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>1100</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C109" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="F109" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="I109" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="K109" s="2" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>1101</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s">
         <v>105</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="F110" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="K110" s="2" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>1102</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C111" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="F111" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="K111" s="2" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>1103</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C112" t="s">
         <v>107</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="F112" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="J112" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="K112" s="2" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>1104</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C113" t="s">
         <v>108</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="F113" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="J113" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="K113" s="2" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>1105</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C114" t="s">
         <v>109</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="F114" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="I114" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="J114" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="K114" s="2" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>1106</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C115" t="s">
         <v>110</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="F115" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="I115" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="J115" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="K115" s="2" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C116" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="F116" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="J116" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="K116" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>1107</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C117" t="s">
         <v>112</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="F117" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="J117" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="K117" s="2" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C118" t="s">
         <v>113</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="F118" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="K118" s="2" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C119" t="s">
         <v>114</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="F119" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="K119" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" t="s">
         <v>115</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="F120" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="J120" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="K120" s="2" t="s">
         <v>900</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:J120">
+  <conditionalFormatting sqref="C1:K120">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/ResxFileFromExcel/SampleInput.xlsx
+++ b/ResxFileFromExcel/SampleInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ResxFileFromExcel\ResxFileFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E8A55-0F11-41F9-AF78-B0B2F5CFEBB9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4504A4-3F77-4766-BC1F-6F2503125C95}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{68ABEB2B-1EC0-495F-B6CD-C870869A9683}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1214">
   <si>
     <t>This account has been locked out, please try again later</t>
   </si>
@@ -4517,13 +4517,7 @@
     <t>Skicka gratis i-app-meddelanden till familj och vänner om de också har Talk Home-appen.</t>
   </si>
   <si>
-    <t>Du kan även skicka standard-SMS till icke-Talk Home- app-kunder genom att följa följande steg:</t>
-  </si>
-  <si>
     <t>1. Svep till och välj “Meddelande”-ikonen</t>
-  </si>
-  <si>
-    <t>2. Välj plus-ikonen i det övre högra hörnet för att starta ett nytt meddelande</t>
   </si>
   <si>
     <t>3. Skriv in mobiltelefonnumret som du skulle vilja SMS:a till eller välj den gröna plus-knappen för att lägga till någon från din kontaktlista</t>
@@ -5105,8 +5099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E42DC8-636C-4C44-9197-A5F0246B85D6}">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7052,7 +7046,7 @@
       <c r="A56" s="10" t="s">
         <v>1054</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>1158</v>
       </c>
       <c r="C56" t="s">
@@ -7157,7 +7151,7 @@
       <c r="A59" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="C59" t="s">
@@ -7573,7 +7567,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>1069</v>
       </c>
@@ -7612,8 +7606,8 @@
       <c r="A72" s="10" t="s">
         <v>1070</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>1174</v>
+      <c r="B72" t="s">
+        <v>1170</v>
       </c>
       <c r="C72" t="s">
         <v>67</v>
@@ -7647,8 +7641,8 @@
       <c r="A73" s="10" t="s">
         <v>1071</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>1175</v>
+      <c r="B73" t="s">
+        <v>1174</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -7678,12 +7672,12 @@
         <v>858</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>1072</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>1176</v>
+      <c r="B74" s="1" t="s">
+        <v>1175</v>
       </c>
       <c r="C74" t="s">
         <v>69</v>
@@ -7718,7 +7712,7 @@
         <v>1073</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C75" t="s">
         <v>70</v>
@@ -7753,7 +7747,7 @@
         <v>1074</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C76" t="s">
         <v>71</v>
@@ -7783,12 +7777,12 @@
         <v>861</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>1075</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C77" t="s">
         <v>72</v>
@@ -7818,12 +7812,12 @@
         <v>862</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>1076</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C78" t="s">
         <v>73</v>
@@ -7858,7 +7852,7 @@
         <v>1077</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C79" t="s">
         <v>74</v>
@@ -7893,7 +7887,7 @@
         <v>1078</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C80" t="s">
         <v>75</v>
@@ -7928,7 +7922,7 @@
         <v>1079</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C81" t="s">
         <v>76</v>
@@ -7963,7 +7957,7 @@
         <v>1080</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C82" t="s">
         <v>77</v>
@@ -7998,7 +7992,7 @@
         <v>1081</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C83" t="s">
         <v>78</v>
@@ -8033,7 +8027,7 @@
         <v>1082</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C84" t="s">
         <v>79</v>
@@ -8068,7 +8062,7 @@
         <v>1083</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C85" t="s">
         <v>80</v>
@@ -8103,7 +8097,7 @@
         <v>1084</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C86" t="s">
         <v>81</v>
@@ -8138,7 +8132,7 @@
         <v>1085</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C87" t="s">
         <v>82</v>
@@ -8173,7 +8167,7 @@
         <v>1086</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C88" t="s">
         <v>83</v>
@@ -8208,7 +8202,7 @@
         <v>1087</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C89" t="s">
         <v>84</v>
@@ -8238,12 +8232,12 @@
         <v>874</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>1088</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C90" t="s">
         <v>85</v>
@@ -8278,7 +8272,7 @@
         <v>1089</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C91" t="s">
         <v>86</v>
@@ -8313,7 +8307,7 @@
         <v>1090</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C92" t="s">
         <v>87</v>
@@ -8348,7 +8342,7 @@
         <v>1091</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C93" t="s">
         <v>88</v>
@@ -8383,7 +8377,7 @@
         <v>1092</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C94" t="s">
         <v>89</v>
@@ -8418,7 +8412,7 @@
         <v>1093</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C95" t="s">
         <v>90</v>
@@ -8453,7 +8447,7 @@
         <v>1094</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C96" t="s">
         <v>91</v>
@@ -8488,7 +8482,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C97" t="s">
         <v>92</v>
@@ -8523,7 +8517,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C98" t="s">
         <v>93</v>
@@ -8558,7 +8552,7 @@
         <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C99" t="s">
         <v>94</v>
@@ -8592,8 +8586,8 @@
       <c r="A100" s="10" t="s">
         <v>1095</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>1202</v>
+      <c r="B100" s="1" t="s">
+        <v>1201</v>
       </c>
       <c r="C100" t="s">
         <v>95</v>
@@ -8628,7 +8622,7 @@
         <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1203</v>
+        <v>96</v>
       </c>
       <c r="C101" t="s">
         <v>96</v>
@@ -8663,7 +8657,7 @@
         <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>1202</v>
       </c>
       <c r="C102" t="s">
         <v>97</v>
@@ -8698,7 +8692,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C103" t="s">
         <v>98</v>
@@ -8733,7 +8727,7 @@
         <v>1096</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C104" t="s">
         <v>99</v>
@@ -8763,12 +8757,12 @@
         <v>887</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>1097</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C105" t="s">
         <v>100</v>
@@ -8803,7 +8797,7 @@
         <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1207</v>
+        <v>101</v>
       </c>
       <c r="C106" t="s">
         <v>101</v>
@@ -8838,7 +8832,7 @@
         <v>1098</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>1138</v>
       </c>
       <c r="C107" t="s">
         <v>102</v>
@@ -8873,7 +8867,7 @@
         <v>1099</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1138</v>
+        <v>1206</v>
       </c>
       <c r="C108" t="s">
         <v>103</v>
@@ -8908,7 +8902,7 @@
         <v>1100</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1208</v>
+        <v>222</v>
       </c>
       <c r="C109" t="s">
         <v>104</v>
@@ -8943,7 +8937,7 @@
         <v>1101</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>222</v>
+        <v>1207</v>
       </c>
       <c r="C110" t="s">
         <v>105</v>
@@ -8978,7 +8972,7 @@
         <v>1102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C111" t="s">
         <v>106</v>
@@ -9013,7 +9007,7 @@
         <v>1103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C112" t="s">
         <v>107</v>
@@ -9048,7 +9042,7 @@
         <v>1104</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C113" t="s">
         <v>108</v>
@@ -9083,7 +9077,7 @@
         <v>1105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C114" t="s">
         <v>109</v>
@@ -9118,7 +9112,7 @@
         <v>1106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1213</v>
+        <v>454</v>
       </c>
       <c r="C115" t="s">
         <v>110</v>
@@ -9153,7 +9147,7 @@
         <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>454</v>
+        <v>1196</v>
       </c>
       <c r="C116" t="s">
         <v>111</v>
@@ -9188,7 +9182,7 @@
         <v>1107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1198</v>
+        <v>1212</v>
       </c>
       <c r="C117" t="s">
         <v>112</v>
@@ -9223,7 +9217,7 @@
         <v>1108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C118" t="s">
         <v>113</v>
@@ -9258,7 +9252,7 @@
         <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1215</v>
+        <v>114</v>
       </c>
       <c r="C119" t="s">
         <v>114</v>
@@ -9293,7 +9287,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="C120" t="s">
         <v>115</v>
